--- a/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{349BDB27-1DB7-457D-8D74-EFE22217EFE5}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44538917-71AE-4E30-A790-B0968325A5E2}"/>
   <bookViews>
-    <workbookView xWindow="-22815" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-14325" yWindow="-19290" windowWidth="40665" windowHeight="16905" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Unit</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Cap_Output1_existing</t>
   </si>
   <si>
-    <t>Cap_Output_1_max</t>
-  </si>
-  <si>
     <t>Cap_Output2_existing</t>
   </si>
   <si>
@@ -177,60 +174,9 @@
     <t>minimum_op_point</t>
   </si>
   <si>
-    <t>unit_idle_heat_rate</t>
-  </si>
-  <si>
-    <t>Error messages:</t>
-  </si>
-  <si>
-    <t>Solar_Plant_Kasso</t>
-  </si>
-  <si>
-    <t>Power_Kasso</t>
-  </si>
-  <si>
-    <t>Electrolyzer</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Hydrogen_Kasso</t>
-  </si>
-  <si>
-    <t>Waste_Heat</t>
-  </si>
-  <si>
     <t>CO2_Vaporizer</t>
   </si>
   <si>
-    <t>Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Vaporized_Carbon_Dioxide</t>
-  </si>
-  <si>
-    <t>Destilation_Tower</t>
-  </si>
-  <si>
-    <t>Raw_Methanol</t>
-  </si>
-  <si>
-    <t>Steam</t>
-  </si>
-  <si>
-    <t>E-Methanol_Kasso</t>
-  </si>
-  <si>
-    <t>Methanol_Reactor</t>
-  </si>
-  <si>
-    <t>48h</t>
-  </si>
-  <si>
-    <t>Steam_Plant</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -246,33 +192,9 @@
     <t>Relation_Out_In</t>
   </si>
   <si>
-    <t>power_line_Wholesale_Kasso</t>
-  </si>
-  <si>
-    <t>Power_Wholesale</t>
-  </si>
-  <si>
     <t>connection_type_lossless_bidirectional</t>
   </si>
   <si>
-    <t>pipeline_storage_hydrogen</t>
-  </si>
-  <si>
-    <t>Hydrogen_storage_Kasso</t>
-  </si>
-  <si>
-    <t>pipeline_storage_e-methanol</t>
-  </si>
-  <si>
-    <t>E-Methanol_storage_Kasso</t>
-  </si>
-  <si>
-    <t>pipeline_District_Heating</t>
-  </si>
-  <si>
-    <t>District_Heating</t>
-  </si>
-  <si>
     <t>connection_type_normal</t>
   </si>
   <si>
@@ -306,9 +228,6 @@
     <t>demand</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Object_type</t>
   </si>
   <si>
@@ -330,33 +249,12 @@
     <t>Hydrogen_storage</t>
   </si>
   <si>
-    <t>storage_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_storages</t>
-  </si>
-  <si>
-    <t>storage_investment_cost</t>
-  </si>
-  <si>
     <t>connection_investment_tech_lifetime</t>
   </si>
   <si>
     <t>number_of_connections</t>
   </si>
   <si>
-    <t>unit_investment_variable_type</t>
-  </si>
-  <si>
-    <t>unit_investment_tech_lifetime</t>
-  </si>
-  <si>
-    <t>number_of_units</t>
-  </si>
-  <si>
-    <t>unit_investment_variable_type_continuous</t>
-  </si>
-  <si>
     <t>Pipeline</t>
   </si>
   <si>
@@ -381,18 +279,6 @@
     <t>40Y</t>
   </si>
   <si>
-    <t>35Y</t>
-  </si>
-  <si>
-    <t>25Y</t>
-  </si>
-  <si>
-    <t>30Y</t>
-  </si>
-  <si>
-    <t>20Y</t>
-  </si>
-  <si>
     <t>AEC_Electrolyzer</t>
   </si>
   <si>
@@ -400,13 +286,64 @@
   </si>
   <si>
     <t>SOEC_Electrolyzer</t>
+  </si>
+  <si>
+    <t>solar_plant</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>electrolyzer</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>start_up_cost</t>
+  </si>
+  <si>
+    <t>shut_down_cost</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Input2</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output1</t>
+  </si>
+  <si>
+    <t>minimum_op_point_Output2</t>
+  </si>
+  <si>
+    <t>pl_wholesale</t>
+  </si>
+  <si>
+    <t>pl_h2_st</t>
+  </si>
+  <si>
+    <t>h2_st</t>
+  </si>
+  <si>
+    <t>power_wholesale</t>
+  </si>
+  <si>
+    <t>initial_storages_invested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,17 +363,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,38 +385,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -509,6 +416,21 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -548,23 +470,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AQ7" totalsRowShown="0">
-  <autoFilter ref="A1:AQ7" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AI3" totalsRowShown="0">
+  <autoFilter ref="A1:AI3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="35">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{1193D369-BC65-45A6-8749-4CD88E2C1722}" name="Output2"/>
-    <tableColumn id="6" xr3:uid="{4AAC878F-692F-4277-A013-661DCC5DAE26}" name="Cap_Input1_existing"/>
-    <tableColumn id="7" xr3:uid="{C21757F9-61E8-45D7-ADA3-80D8624CAEF0}" name="Cap_Input1_max"/>
-    <tableColumn id="14" xr3:uid="{23796EE3-B67D-45AE-9553-CC3081EFDF57}" name="Cap_Input2_existing"/>
-    <tableColumn id="15" xr3:uid="{DF0C0799-CA68-4E9B-A1FB-41F4996C01A9}" name="Cap_Input2_max"/>
-    <tableColumn id="16" xr3:uid="{8A84DF9A-0F8E-4DA8-A009-F41EF2B05A60}" name="Cap_Output1_existing"/>
-    <tableColumn id="17" xr3:uid="{6408F114-841E-472E-92F5-7B63FF1B66F4}" name="Cap_Output_1_max"/>
-    <tableColumn id="18" xr3:uid="{541C17F0-C020-47FE-9DA4-DB76D7416668}" name="Cap_Output2_existing"/>
-    <tableColumn id="19" xr3:uid="{D6FEE63D-DC89-4D1A-9708-5E7C70FD5793}" name="Cap_Output2_max"/>
     <tableColumn id="35" xr3:uid="{C3887B4E-C4A5-42AB-A92F-97AD44212E95}" name="mean_efficiency"/>
     <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="min_down_time"/>
     <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up_Output1"/>
@@ -575,41 +489,41 @@
     <tableColumn id="31" xr3:uid="{FF26E17F-A633-477F-A8B8-3FD0C0B88F7D}" name="start_up_Output2"/>
     <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_Output1"/>
     <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="shut_down_Output2"/>
-    <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="Relation_In_In"/>
-    <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="Relation_In_Out"/>
-    <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_Out_Out"/>
-    <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Cost_invest"/>
-    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="units_on_cost"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="fom_cost"/>
-    <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="vom_cost"/>
-    <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="vom_cost_Input1"/>
-    <tableColumn id="21" xr3:uid="{400CD12D-8ADA-4557-B7CA-1464809EAFF0}" name="vom_cost_Input2"/>
-    <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Output1"/>
-    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Output2"/>
-    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="minimum_op_point"/>
-    <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="unit_idle_heat_rate"/>
-    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="resolution_output" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="demand" dataDxfId="6"/>
-    <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="unit_investment_variable_type"/>
-    <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="unit_investment_tech_lifetime"/>
-    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="number_of_units" dataDxfId="5"/>
-    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="Error messages:" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="start_up_cost"/>
+    <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="shut_down_cost"/>
+    <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
+    <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
+    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
+    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest"/>
+    <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
+    <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="fom_cost"/>
+    <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Input1"/>
+    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Input2"/>
+    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="vom_cost_Output1"/>
+    <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="vom_cost_Output2"/>
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="minimum_op_point" dataDxfId="7"/>
+    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="minimum_op_point_Input1" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="minimum_op_point_Input2"/>
+    <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="minimum_op_point_Output1"/>
+    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="minimum_op_point_Output2" dataDxfId="5"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AB5" totalsRowShown="0">
-  <autoFilter ref="A1:AB5" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AA3" totalsRowShown="0">
+  <autoFilter ref="A1:AA3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{26B0CA71-1EA9-44CF-8E6D-31054ECA99A6}" name="Connection"/>
     <tableColumn id="26" xr3:uid="{E67F4435-EF76-417C-B715-53719E5FB41F}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{587ADBB8-7B68-42BE-A14F-535C6116E5EA}" name="Input1"/>
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -623,13 +537,12 @@
     <tableColumn id="9" xr3:uid="{3138804A-F699-4287-89C7-DE76BAD06195}" name="Relation_In_Out"/>
     <tableColumn id="10" xr3:uid="{AE158189-8F74-4D1A-BE7F-20B56DC1FCA0}" name="Relation_Out_Out"/>
     <tableColumn id="23" xr3:uid="{C3B5D3DD-6B9E-4750-8098-2BDCA6D4F76B}" name="Relation_Out_In"/>
-    <tableColumn id="11" xr3:uid="{ADDA3F91-13EA-44FD-BDAD-129E45FF1B77}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{19693C8E-93B1-45BA-838A-11FFE3971C45}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{9A50D747-7636-48C7-AEA4-AC76517E91C7}" name="vom_cost_Input1"/>
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="3"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -637,11 +550,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:N5" totalsRowShown="0">
-  <autoFilter ref="A1:N5" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="1">
-      <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A100,ISNUMBER(FIND("storage",Connections!A2:A100)))</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A98,ISNUMBER(FIND("storage",Connections!A2:A98)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
@@ -653,9 +566,7 @@
     <tableColumn id="11" xr3:uid="{3C880482-B284-4120-859D-C69724716B06}" name="Cost_invest"/>
     <tableColumn id="12" xr3:uid="{DC155748-1945-4E24-B8A1-527B52E12445}" name="fom_cost"/>
     <tableColumn id="13" xr3:uid="{620A5657-4B04-4066-87F7-215E607C4C88}" name="vom_cost"/>
-    <tableColumn id="14" xr3:uid="{58E34C8A-1B4C-437B-981D-CD4CFED1B3A8}" name="storage_investment_tech_lifetime" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{5FF71707-8528-4768-8697-8818F4BC14D6}" name="number_of_storages"/>
-    <tableColumn id="16" xr3:uid="{8C607D2E-BC5C-4E67-8BF2-33EAD803CDBB}" name="storage_investment_cost"/>
+    <tableColumn id="9" xr3:uid="{69E7B88C-0764-41B0-AEB6-B7D45769FA03}" name="initial_storages_invested"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,48 +879,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
     <col min="5" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="10.54296875" customWidth="1"/>
-    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="12.7265625" customWidth="1"/>
-    <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" customWidth="1"/>
-    <col min="32" max="32" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7265625" customWidth="1"/>
-    <col min="37" max="37" width="19" customWidth="1"/>
-    <col min="38" max="38" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" customWidth="1"/>
+    <col min="29" max="29" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1024,434 +932,156 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AC1" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="AD1" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="AE1" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AF1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AG1" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="AH1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AI1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="F3" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2">
-        <v>304</v>
-      </c>
-      <c r="L2">
-        <v>304</v>
-      </c>
-      <c r="AB2">
-        <f>Table1[[#This Row],[Cap_Output1_existing]]*0.56</f>
-        <v>170.24</v>
-      </c>
-      <c r="AD2">
-        <v>1.29</v>
-      </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AP2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3">
-        <v>52</v>
-      </c>
-      <c r="H3">
-        <v>52</v>
-      </c>
-      <c r="O3">
         <v>0.75</v>
       </c>
-      <c r="Y3">
+      <c r="S3">
         <v>5.8500000000000002E-3</v>
       </c>
-      <c r="AA3">
+      <c r="U3">
         <v>1.76</v>
       </c>
+      <c r="X3">
+        <v>4.34</v>
+      </c>
+      <c r="Z3">
+        <v>1.4865951742627345E-3</v>
+      </c>
       <c r="AD3">
-        <v>4.34</v>
-      </c>
-      <c r="AG3">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="AJ3">
         <v>0.02</v>
       </c>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="Y4">
-        <v>3.6010731197896975E-3</v>
-      </c>
-      <c r="Z4">
-        <v>3.601073119789697E-3</v>
-      </c>
-      <c r="AF4">
-        <v>26.81</v>
-      </c>
-      <c r="AK4">
-        <v>0.1</v>
-      </c>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2"/>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5">
-        <v>52</v>
-      </c>
-      <c r="K5">
-        <v>52</v>
-      </c>
-      <c r="Y5">
-        <v>17.277901743828668</v>
-      </c>
-      <c r="Z5">
-        <f>1/0.795</f>
-        <v>1.2578616352201257</v>
-      </c>
-      <c r="AK5">
-        <v>0.1</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>20.192799999999998</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2"/>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>100</v>
-      </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
-      <c r="O6">
-        <v>0.7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="S6">
-        <v>0.5</v>
-      </c>
-      <c r="U6">
-        <v>0.5</v>
-      </c>
-      <c r="W6">
-        <v>0.5</v>
-      </c>
-      <c r="Y6">
-        <v>5.1734967222388608</v>
-      </c>
-      <c r="Z6">
-        <f>1/0.96</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="AA6">
-        <v>4.32</v>
-      </c>
-      <c r="AD6">
-        <v>4.45</v>
-      </c>
-      <c r="AK6">
-        <v>0.1</v>
-      </c>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2"/>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-      <c r="Y7">
-        <v>7.2437800000000002E-4</v>
-      </c>
-      <c r="Z7">
-        <v>0.99</v>
-      </c>
-      <c r="AD7">
-        <v>0.11929223744292237</v>
-      </c>
-      <c r="AG7">
-        <v>1.4865951742627345E-3</v>
-      </c>
-      <c r="AK7">
-        <v>0.1</v>
-      </c>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2"/>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="C9" s="1"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL2:AL7" xr:uid="{D92CB468-B7A9-4082-9B81-D3B4634F286E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH3" xr:uid="{23574797-1E15-4475-9B09-C6B154B4E9A5}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1467,7 +1097,7 @@
           <x14:formula1>
             <xm:f>Drop_Down!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1477,45 +1107,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
     <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="1.7265625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="19" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="15.453125" customWidth="1"/>
-    <col min="15" max="15" width="19" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="10.54296875" customWidth="1"/>
     <col min="17" max="17" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.81640625" customWidth="1"/>
-    <col min="21" max="21" width="12.7265625" customWidth="1"/>
-    <col min="22" max="22" width="12.81640625" customWidth="1"/>
-    <col min="23" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" customWidth="1"/>
+    <col min="22" max="23" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1530,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1548,34 +1175,34 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W1" t="s">
         <v>29</v>
@@ -1587,36 +1214,33 @@
         <v>31</v>
       </c>
       <c r="Z1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1648,34 +1272,34 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2">
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1701,107 +1325,13 @@
       <c r="T3">
         <v>0.88</v>
       </c>
-      <c r="V3">
+      <c r="U3">
         <v>7.2835616438356163E-2</v>
       </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="Z3" t="s">
         <v>66</v>
       </c>
-      <c r="H4">
-        <v>1000</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
-        <v>1000</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>1000</v>
-      </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="R4">
-        <v>0.99983999999999995</v>
-      </c>
-      <c r="T4">
-        <v>0.99983999999999995</v>
-      </c>
-      <c r="V4">
-        <v>1.0958904109589041E-2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5">
-        <v>1000</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="L5">
-        <v>1000</v>
-      </c>
-      <c r="M5">
-        <v>1000</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB5">
+      <c r="AA3">
         <v>1</v>
       </c>
     </row>
@@ -1819,7 +1349,7 @@
           <x14:formula1>
             <xm:f>Drop_Down!$A$2:$A$60</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B100</xm:sqref>
+          <xm:sqref>B2:B98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1829,11 +1359,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1848,59 +1376,52 @@
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1915,54 +1436,16 @@
         <v>4.147E-2</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2">
+        <v>48</v>
+      </c>
+      <c r="L2">
         <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2640</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1.3958682300390841E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1977,7 +1460,7 @@
           <x14:formula1>
             <xm:f>Drop_Down!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2000,77 +1483,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44538917-71AE-4E30-A790-B0968325A5E2}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B238A96-A131-4EC5-981C-9CF6FBC6340D}"/>
   <bookViews>
-    <workbookView xWindow="-14325" yWindow="-19290" windowWidth="40665" windowHeight="16905" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Unit</t>
   </si>
@@ -202,9 +202,6 @@
   </si>
   <si>
     <t>value_before</t>
-  </si>
-  <si>
-    <t>value_start</t>
   </si>
   <si>
     <t>has_state</t>
@@ -397,6 +394,20 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -417,20 +428,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -467,6 +464,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,8 +507,8 @@
     <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="minimum_op_point_Input2"/>
     <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="minimum_op_point_Output1"/>
     <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="minimum_op_point_Output2" dataDxfId="5"/>
-    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,7 +524,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -542,7 +543,7 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="1"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -550,15 +551,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:L4" totalsRowShown="0">
-  <autoFilter ref="A1:L4" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K4" totalsRowShown="0">
+  <autoFilter ref="A1:K4" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A98,ISNUMBER(FIND("storage",Connections!A2:A98)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
     <tableColumn id="4" xr3:uid="{AEAA1B51-84C1-491F-81D5-7757B30BDCCD}" name="value_before"/>
-    <tableColumn id="6" xr3:uid="{FA5F8582-61FC-4A96-9E8D-E08E92F1962D}" name="value_start"/>
     <tableColumn id="5" xr3:uid="{58DBFD58-A0D2-4B31-B639-19B1628ABAC8}" name="has_state"/>
     <tableColumn id="2" xr3:uid="{1FB70133-79C8-41A8-BCD5-AC8AA5856E5B}" name="node_state_cap"/>
     <tableColumn id="3" xr3:uid="{11AD2EA9-CE36-4CCE-8F89-387EFE0D8EED}" name="frac_state_loss"/>
@@ -881,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" t="s">
         <v>77</v>
-      </c>
-      <c r="R1" t="s">
-        <v>78</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -980,7 +980,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X1" t="s">
         <v>26</v>
@@ -1001,33 +1001,33 @@
         <v>32</v>
       </c>
       <c r="AD1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" t="s">
         <v>79</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>80</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>81</v>
       </c>
-      <c r="AG1" t="s">
-        <v>82</v>
-      </c>
       <c r="AH1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" t="s">
         <v>49</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1037,22 +1037,22 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1142,7 +1142,7 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1214,30 +1214,30 @@
         <v>31</v>
       </c>
       <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
         <v>58</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1281,22 +1281,22 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>85</v>
-      </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
         <v>40</v>
@@ -1329,7 +1329,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1359,31 +1359,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>42</v>
@@ -1401,51 +1400,48 @@
         <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5478.6764505058327</v>
+      </c>
       <c r="F2">
-        <v>5478.6764505058327</v>
-      </c>
-      <c r="G2">
         <v>4.147E-2</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2">
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{5D5BF415-E056-4F96-A602-1B73CD7FB1B5}">
       <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1483,27 +1479,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -1513,47 +1509,47 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B238A96-A131-4EC5-981C-9CF6FBC6340D}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2980F7C-ADF4-4D40-B2CF-19D3127C1BC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Unit</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>initial_storages_invested</t>
+  </si>
+  <si>
+    <t>initial_units_on</t>
   </si>
 </sst>
 </file>
@@ -471,9 +474,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AI3" totalsRowShown="0">
-  <autoFilter ref="A1:AI3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ3" totalsRowShown="0">
+  <autoFilter ref="A1:AJ3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
     <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
@@ -509,6 +512,7 @@
     <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="minimum_op_point_Output2" dataDxfId="5"/>
     <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{238E0842-0C4D-42A1-B8BB-DAAABA5BE2BA}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -879,9 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -912,7 +918,7 @@
     <col min="35" max="35" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,8 +1024,11 @@
       <c r="AI1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -1035,7 +1044,7 @@
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1073,9 +1082,11 @@
         <v>0.02</v>
       </c>
       <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AI3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
     </row>
   </sheetData>
@@ -1361,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2980F7C-ADF4-4D40-B2CF-19D3127C1BC0}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AE377D-EEB3-4949-BE03-FB25A0670A55}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="1260" yWindow="-17820" windowWidth="14400" windowHeight="8265" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>Unit</t>
   </si>
@@ -300,9 +300,6 @@
     <t>h2</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
     <t>start_up_cost</t>
   </si>
   <si>
@@ -337,6 +334,15 @@
   </si>
   <si>
     <t>initial_units_on</t>
+  </si>
+  <si>
+    <t>heat_low</t>
+  </si>
+  <si>
+    <t>pl_dh</t>
+  </si>
+  <si>
+    <t>dh</t>
   </si>
 </sst>
 </file>
@@ -885,9 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -968,10 +972,10 @@
         <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
         <v>76</v>
-      </c>
-      <c r="R1" t="s">
-        <v>77</v>
       </c>
       <c r="S1" t="s">
         <v>22</v>
@@ -1007,16 +1011,16 @@
         <v>32</v>
       </c>
       <c r="AD1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE1" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>80</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>81</v>
       </c>
       <c r="AH1" t="s">
         <v>48</v>
@@ -1025,7 +1029,7 @@
         <v>49</v>
       </c>
       <c r="AJ1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1061,7 +1065,7 @@
         <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -1118,9 +1122,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1233,13 +1237,13 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>71</v>
@@ -1248,7 +1252,7 @@
         <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
         <v>39</v>
@@ -1292,7 +1296,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -1301,10 +1305,10 @@
         <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -1343,6 +1347,44 @@
         <v>65</v>
       </c>
       <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>1000</v>
+      </c>
+      <c r="M4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
     </row>
@@ -1360,7 +1402,7 @@
           <x14:formula1>
             <xm:f>Drop_Down!$A$2:$A$60</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B98</xm:sqref>
+          <xm:sqref>B2:B3 B5:B98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1420,12 +1462,12 @@
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>

--- a/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
+++ b/Spine_Projects/01_input_data/01_input_raw/hydrogen/Model_Data_Base_hydrogen.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentcbs-my.sharepoint.com/personal/djh_eco_cbs_dk/Documents/Documents/GitHub/Nord_H2ub/Spine_Projects/01_input_data/01_input_raw/hydrogen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AE377D-EEB3-4949-BE03-FB25A0670A55}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{D954787A-120F-4E9B-9D31-96F6A5AD2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6C4B146-5FB6-411C-B056-0AEAB52CFBB3}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="-17820" windowWidth="14400" windowHeight="8265" activeTab="1" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
+    <workbookView xWindow="3060" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{50334894-9481-4F8E-BD29-206032E10C62}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="1" r:id="rId1"/>
-    <sheet name="Connections" sheetId="2" r:id="rId2"/>
-    <sheet name="Storages" sheetId="3" r:id="rId3"/>
-    <sheet name="Drop_Down" sheetId="4" r:id="rId4"/>
+    <sheet name="Unit_relations" sheetId="5" r:id="rId2"/>
+    <sheet name="Connections" sheetId="2" r:id="rId3"/>
+    <sheet name="Storages" sheetId="3" r:id="rId4"/>
+    <sheet name="Drop_Down" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"23140fb6-9465-4859-9eea-feef6872d773"</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t>Unit</t>
   </si>
@@ -117,30 +118,6 @@
     <t>min_down_time</t>
   </si>
   <si>
-    <t>ramp_up_Output1</t>
-  </si>
-  <si>
-    <t>ramp_up_Output2</t>
-  </si>
-  <si>
-    <t>ramp_down_Output1</t>
-  </si>
-  <si>
-    <t>ramp_down_Output2</t>
-  </si>
-  <si>
-    <t>start_up_Output1</t>
-  </si>
-  <si>
-    <t>start_up_Output2</t>
-  </si>
-  <si>
-    <t>shut_down_Output1</t>
-  </si>
-  <si>
-    <t>shut_down_Output2</t>
-  </si>
-  <si>
     <t>Relation_In_In</t>
   </si>
   <si>
@@ -306,18 +283,6 @@
     <t>shut_down_cost</t>
   </si>
   <si>
-    <t>minimum_op_point_Input1</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Input2</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Output1</t>
-  </si>
-  <si>
-    <t>minimum_op_point_Output2</t>
-  </si>
-  <si>
     <t>pl_wholesale</t>
   </si>
   <si>
@@ -343,13 +308,79 @@
   </si>
   <si>
     <t>dh</t>
+  </si>
+  <si>
+    <t>wind_onshore</t>
+  </si>
+  <si>
+    <t>Wind_onshore</t>
+  </si>
+  <si>
+    <t>wind_offshore</t>
+  </si>
+  <si>
+    <t>Wind_offshore</t>
+  </si>
+  <si>
+    <t>shut_down_limit</t>
+  </si>
+  <si>
+    <t>start_up_limit</t>
+  </si>
+  <si>
+    <t>ramp_down</t>
+  </si>
+  <si>
+    <t>ramp_up</t>
+  </si>
+  <si>
+    <t>unit_capacity</t>
+  </si>
+  <si>
+    <t>water_import</t>
+  </si>
+  <si>
+    <t>Auxilliary</t>
+  </si>
+  <si>
+    <t>water_source</t>
+  </si>
+  <si>
+    <t>Input3</t>
+  </si>
+  <si>
+    <t>Input4</t>
+  </si>
+  <si>
+    <t>Output3</t>
+  </si>
+  <si>
+    <t>Output4</t>
+  </si>
+  <si>
+    <t>Relation_Out1_Out2</t>
+  </si>
+  <si>
+    <t>Relation_Out1_Out4</t>
+  </si>
+  <si>
+    <t>Relation_Out1_Out3</t>
+  </si>
+  <si>
+    <t>Relation_In1_In2</t>
+  </si>
+  <si>
+    <t>Relation_In1_In3</t>
+  </si>
+  <si>
+    <t>Relation_In1_In4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +397,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,17 +427,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -439,27 +548,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -480,44 +568,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:AJ3" totalsRowShown="0">
-  <autoFilter ref="A1:AJ3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0">
+  <autoFilter ref="A1:R6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{C73E51D0-1842-42F3-9C00-F0DBD2E661BE}" name="Unit"/>
     <tableColumn id="40" xr3:uid="{C2CFC5A4-5329-4F74-926A-18CEB18C062C}" name="Object_type"/>
-    <tableColumn id="2" xr3:uid="{FA8BE796-DE15-407E-8998-92C973AE35A4}" name="Input1"/>
-    <tableColumn id="3" xr3:uid="{168877A6-E181-4446-9569-F36E8CEB8908}" name="Input2"/>
-    <tableColumn id="4" xr3:uid="{C03E717E-B39B-450F-A07B-8C087AA65297}" name="Output1"/>
-    <tableColumn id="5" xr3:uid="{1193D369-BC65-45A6-8749-4CD88E2C1722}" name="Output2"/>
+    <tableColumn id="2" xr3:uid="{71349AE8-BE7C-40AC-8B58-F2DFE8A3C7CD}" name="unit_capacity"/>
     <tableColumn id="35" xr3:uid="{C3887B4E-C4A5-42AB-A92F-97AD44212E95}" name="mean_efficiency"/>
     <tableColumn id="8" xr3:uid="{5F719CEE-A0F7-452C-B82C-E739C5FED49B}" name="min_down_time"/>
-    <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up_Output1"/>
-    <tableColumn id="28" xr3:uid="{EBC4610B-47F0-44E3-8543-664851FC473C}" name="ramp_up_Output2"/>
-    <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_down_Output1"/>
-    <tableColumn id="29" xr3:uid="{5A66563E-85FF-4FFA-9DB7-EAC64F37E721}" name="ramp_down_Output2"/>
-    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="start_up_Output1"/>
-    <tableColumn id="31" xr3:uid="{FF26E17F-A633-477F-A8B8-3FD0C0B88F7D}" name="start_up_Output2"/>
-    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_Output1"/>
-    <tableColumn id="33" xr3:uid="{D8C88D78-E68F-45EF-8A97-7C1F84821946}" name="shut_down_Output2"/>
+    <tableColumn id="26" xr3:uid="{D0F85E7B-D704-45A0-BE99-26E3A1F08634}" name="ramp_up"/>
+    <tableColumn id="27" xr3:uid="{DC89C4F2-3857-45F2-B4A0-642F9C1613A6}" name="ramp_down"/>
+    <tableColumn id="30" xr3:uid="{98C94D50-387A-4596-96E7-17395B3AF62E}" name="start_up_limit"/>
+    <tableColumn id="32" xr3:uid="{D45EEC70-4FBC-44FF-9E9A-E2D38C52BF94}" name="shut_down_limit"/>
     <tableColumn id="9" xr3:uid="{50F936EF-D32C-4938-8FCA-291A6A3E82E6}" name="start_up_cost"/>
     <tableColumn id="20" xr3:uid="{84C680FD-12EA-4AE2-A238-57453A3D8C12}" name="shut_down_cost"/>
-    <tableColumn id="10" xr3:uid="{ACDE4024-BCA2-4145-B3BC-1A5A08F3EA7D}" name="Relation_In_In"/>
-    <tableColumn id="11" xr3:uid="{8AEC88A1-B64A-43A2-AC89-3B27AB4ACAD7}" name="Relation_In_Out"/>
-    <tableColumn id="25" xr3:uid="{95F69D80-80E7-42BD-B42F-59F3C3DC485B}" name="Relation_Out_Out"/>
-    <tableColumn id="12" xr3:uid="{F1A83AF0-CF23-4B00-9076-4E28DF8DAFD3}" name="Cost_invest"/>
     <tableColumn id="24" xr3:uid="{4D171E04-3F62-4131-BD43-B8A8D03B8530}" name="units_on_cost"/>
     <tableColumn id="13" xr3:uid="{AD4231E3-CB94-4597-81A2-E13C044BBD2D}" name="fom_cost"/>
-    <tableColumn id="22" xr3:uid="{3FA572AD-B473-45F7-A244-2DF38E57A2D3}" name="vom_cost_Input1"/>
-    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost_Input2"/>
-    <tableColumn id="34" xr3:uid="{7D7F0E89-0553-40E4-9D5A-219BF1741787}" name="vom_cost_Output1"/>
-    <tableColumn id="36" xr3:uid="{E8FC87F8-AAF9-461B-B88C-F56651B25838}" name="vom_cost_Output2"/>
-    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="minimum_op_point" dataDxfId="7"/>
-    <tableColumn id="39" xr3:uid="{BCE2350E-150B-4A7E-94BF-BB3BC7E31016}" name="minimum_op_point_Input1" dataDxfId="6"/>
-    <tableColumn id="37" xr3:uid="{346F31E8-88ED-465C-B79B-8EF5B5998228}" name="minimum_op_point_Input2"/>
-    <tableColumn id="42" xr3:uid="{196BB49D-6206-466A-86DE-0BAB17646DAF}" name="minimum_op_point_Output1"/>
-    <tableColumn id="43" xr3:uid="{4079FBE2-CFC5-4BCF-9353-8F6771C73DD2}" name="minimum_op_point_Output2" dataDxfId="5"/>
-    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{1F97C2CD-E522-4842-8E10-F9B9566A6723}" name="vom_cost"/>
+    <tableColumn id="38" xr3:uid="{957AF85B-8792-4643-A381-29FACAA69887}" name="minimum_op_point" dataDxfId="10"/>
+    <tableColumn id="45" xr3:uid="{4B3B8871-E458-49D5-BFE4-E2DD849EE6AD}" name="resolution_output" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{44846CDD-5E13-40D4-8674-DAF6B74B02BA}" name="demand" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{238E0842-0C4D-42A1-B8BB-DAAABA5BE2BA}" name="initial_units_on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -525,6 +595,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8AA310C6-F18F-4998-A145-D56247D86D9F}" name="Table16" displayName="Table16" ref="A1:Q6" totalsRowShown="0">
+  <autoFilter ref="A1:Q6" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{1E42F0BF-B3FD-483F-B586-C8B364BBEB3F}" name="Unit"/>
+    <tableColumn id="40" xr3:uid="{47DBF18E-E883-42F1-B6C9-981EAA9719B5}" name="Object_type"/>
+    <tableColumn id="2" xr3:uid="{5A18B8CF-787A-489B-9DAB-6DE18F1EFF6B}" name="Input1" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AF402099-7471-4FEA-9D12-652D470A386A}" name="Input2" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{62E29BD7-FD4D-4BC3-AB4B-27684637CFEC}" name="Input3" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{9E4D6661-8E48-4C47-9287-11CCD5213DF5}" name="Input4" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{FCBDCD13-B272-4832-9D64-74D0A2EC1108}" name="Output1" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{093501D1-BB1B-4BC3-9333-0D7850CA5939}" name="Output2"/>
+    <tableColumn id="16" xr3:uid="{D0C48D8E-C1B9-45A7-8F54-2934269CBC1D}" name="Output3"/>
+    <tableColumn id="17" xr3:uid="{6C9F66F1-97E2-4544-8353-B315A08051C4}" name="Output4"/>
+    <tableColumn id="10" xr3:uid="{D48252A2-BDE2-48FE-8080-2C592E8231F9}" name="Relation_In1_In2"/>
+    <tableColumn id="19" xr3:uid="{2827C895-D7A0-448C-8A27-72EA219F2018}" name="Relation_In1_In3"/>
+    <tableColumn id="20" xr3:uid="{CB9929FF-437C-4BAF-AFA8-3A248DF618B1}" name="Relation_In1_In4"/>
+    <tableColumn id="11" xr3:uid="{3C59BECF-3006-4793-8B4D-4BA5EB79FC78}" name="Relation_In_Out"/>
+    <tableColumn id="25" xr3:uid="{EF88872F-1E98-4FBA-98E6-4CB79B075436}" name="Relation_Out1_Out2"/>
+    <tableColumn id="21" xr3:uid="{1FEA7944-790F-4D62-BC07-FE4512B0F13E}" name="Relation_Out1_Out3"/>
+    <tableColumn id="22" xr3:uid="{540F8A85-16C7-438B-A359-C7F336CB229B}" name="Relation_Out1_Out4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{856854C3-DC05-4AB8-91B8-0E52D9C11DBC}" name="Table13" displayName="Table13" ref="A1:AA3" totalsRowShown="0">
   <autoFilter ref="A1:AA3" xr:uid="{A55D93BB-3EF1-4249-80C0-A8E75E738393}"/>
   <tableColumns count="27">
@@ -534,7 +630,7 @@
     <tableColumn id="3" xr3:uid="{0B221EED-10BC-4C34-AC5E-37A826B1E8AE}" name="Input2"/>
     <tableColumn id="4" xr3:uid="{13095F0A-BCF6-40A3-B029-60B11214B154}" name="Output1"/>
     <tableColumn id="5" xr3:uid="{4C6B3E52-C4A2-4D67-B50B-9DAA089E0399}" name="Output2"/>
-    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{551A8663-4680-4147-9E64-4B9A8EA76642}" name="Connection_type" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{5DF4D35D-AD4C-4648-BC90-B2BA8F975A09}" name="Cap_Input1_existing"/>
     <tableColumn id="15" xr3:uid="{C0BCA9EF-0E20-40E5-9820-0EA6AB1DE457}" name="Cap_Input1_max"/>
     <tableColumn id="14" xr3:uid="{D4F16D16-99DE-47DA-B08A-6DD56FEBC7A4}" name="Cap_Input2_existing"/>
@@ -553,18 +649,18 @@
     <tableColumn id="21" xr3:uid="{EC2CC790-C17D-4744-A981-3984808E5B33}" name="vom_cost_Input2"/>
     <tableColumn id="24" xr3:uid="{41B338E4-2058-41E9-8000-97D77450FBC3}" name="vom_cost_Output1"/>
     <tableColumn id="25" xr3:uid="{DDAFCF0A-1EF1-4B7B-9742-01F9FA7A22E5}" name="vom_cost_Output2"/>
-    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{79DE3A19-CED6-47DE-AEF5-F6BB2D320F24}" name="connection_investment_tech_lifetime" dataDxfId="6"/>
     <tableColumn id="30" xr3:uid="{09434E4A-7BF5-4547-9708-EA3F0F7ADC8E}" name="number_of_connections"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}" name="Table134" displayName="Table134" ref="A1:K4" totalsRowShown="0">
   <autoFilter ref="A1:K4" xr:uid="{070C7B69-9214-47B9-93F0-C6C6118ED7CC}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{59CF1CEF-E7FA-4B7F-9443-D4A6EAAB7A8F}" name="Storage" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn._xlws.FILTER(Connections!A2:A98,ISNUMBER(FIND("storage",Connections!A2:A98)))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{8C29206C-8DC6-44DB-A8D1-3D5625C277AD}" name="Object_type"/>
@@ -582,9 +678,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}" name="Table4" displayName="Table4" ref="A1:A15" totalsRowShown="0">
-  <autoFilter ref="A1:A15" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}" name="Table4" displayName="Table4" ref="A1:A18" totalsRowShown="0">
+  <autoFilter ref="A1:A18" xr:uid="{E5F8A7EB-52A6-4AC4-94D0-FF5952E382A3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{99EC3AFF-E76A-4BF2-94D0-13EEEC46286A}" name="object_type"/>
   </tableColumns>
@@ -889,75 +985,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576C757C-091A-46DF-949E-B17661031FDE}">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19" customWidth="1"/>
-    <col min="29" max="29" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="18" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
@@ -966,137 +1040,104 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>64</v>
       </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="M5">
+        <v>4.34</v>
+      </c>
+      <c r="O5">
+        <v>0.02</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="G3">
-        <v>0.75</v>
-      </c>
-      <c r="S3">
-        <v>5.8500000000000002E-3</v>
-      </c>
-      <c r="U3">
-        <v>1.76</v>
-      </c>
-      <c r="X3">
-        <v>4.34</v>
-      </c>
-      <c r="Z3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6">
         <v>1.4865951742627345E-3</v>
       </c>
-      <c r="AD3">
-        <v>0.02</v>
-      </c>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C5" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH2:AH3" xr:uid="{23574797-1E15-4475-9B09-C6B154B4E9A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{23574797-1E15-4475-9B09-C6B154B4E9A5}">
       <formula1>"h, D, W, M, Q, Y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1108,11 +1149,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6165F12-61B4-4BB9-9C06-E04D7CAF2ECE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{819E89AF-4CE1-4BEB-8109-98DA6F81FA02}">
           <x14:formula1>
-            <xm:f>Drop_Down!$A$2:$A$13</xm:f>
+            <xm:f>Drop_Down!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1121,10 +1162,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA8CF00-6732-4851-B778-5775C18D4F52}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>5.8500000000000002E-3</v>
+      </c>
+      <c r="O5">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBFBB5E2-C3B9-48D3-9195-FD284AE3E030}">
+          <x14:formula1>
+            <xm:f>Drop_Down!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C870BDA0-9E4C-481D-87BE-9D47789809C8}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1154,10 +1372,10 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1172,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1190,7 +1408,7 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -1199,63 +1417,63 @@
         <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" t="s">
-        <v>29</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>31</v>
-      </c>
       <c r="Z1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AA1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -1288,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1296,25 +1514,25 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>1000</v>
@@ -1344,7 +1562,7 @@
         <v>7.2835616438356163E-2</v>
       </c>
       <c r="Z3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -1352,19 +1570,19 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>1000</v>
@@ -1382,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA4">
         <v>1</v>
@@ -1410,7 +1628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981CFA5E-60F3-446F-A856-2FA65B76879A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1432,45 +1650,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1485,7 +1703,7 @@
         <v>4.147E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1517,12 +1735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DC79B9-9C58-497E-9FD8-D3F2239E9BDC}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1532,80 +1750,100 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A17:A18" xr:uid="{F8570EE6-AE7B-4562-A9E3-E06EBCD742A3}">
+      <formula1>$A$2:$A$36</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
